--- a/投票檔案格式.xlsx
+++ b/投票檔案格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiufuwei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiufuwei/Downloads/vote_public-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD34CD0-AD41-1B41-A89C-EADB6A23B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A07288-BF17-5142-92E5-B4CD8EBD6E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="3380" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
   <si>
     <t>班級</t>
   </si>
   <si>
-    <t>學生</t>
-  </si>
-  <si>
     <t>序號</t>
-  </si>
-  <si>
-    <t>家長</t>
   </si>
   <si>
     <t>得票數</t>
@@ -40,7 +34,8 @@
     <t/>
   </si>
   <si>
-    <t>子弟</t>
+    <t>候選人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -458,7 +453,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -474,17 +469,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="F3" s="1"/>
@@ -605,104 +595,104 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +700,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A42:E47" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 A42:E47 B1 D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/投票檔案格式.xlsx
+++ b/投票檔案格式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiufuwei/Downloads/vote_public-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A07288-BF17-5142-92E5-B4CD8EBD6E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDE70DC-7516-9347-96C3-7C5AB3A9306E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="3380" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
-  <si>
-    <t>班級</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="4">
   <si>
     <t>序號</t>
   </si>
@@ -453,7 +450,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -466,13 +463,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="F1"/>
     </row>
@@ -595,104 +589,104 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +694,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 A42:E47 B1 D1" numberStoredAsText="1"/>
+    <ignoredError sqref="A42:E47 A1 C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>